--- a/Doc/Integracion aldebaran.xlsx
+++ b/Doc/Integracion aldebaran.xlsx
@@ -471,7 +471,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C4"/>
+      <selection activeCell="A2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,10 +490,11 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
@@ -516,10 +517,11 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -533,18 +535,20 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
     </row>
